--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979D9182-39DA-474F-BCA5-0C74D0D946DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F49DA41-2850-411E-B14F-1B447EE5CF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A1BFB674-D418-4DF5-BEAB-B5B87267306D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8954381-B0E7-4225-8A2F-7B6AF24368DE}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,6 +951,236 @@
       </c>
       <c r="K14">
         <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <v>23</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23">
+        <v>26</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>26</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
